--- a/bioSample/bioSample_1476.xlsx
+++ b/bioSample/bioSample_1476.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_1476.xlsx
+++ b/bioSample/bioSample_1476.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07633850-B7CB-7C4F-B7F4-EF6B65E6F68D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC497D3-FCC9-1C45-B958-1B6C53428B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>harvestDate</t>
   </si>
@@ -39,9 +39,6 @@
     <t>experimentDesign</t>
   </si>
   <si>
-    <t>experimentObservations</t>
-  </si>
-  <si>
     <t>strain</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>90minuteInduction</t>
   </si>
   <si>
-    <t>KN99alpha</t>
-  </si>
-  <si>
     <t>CNAG_00000</t>
   </si>
   <si>
@@ -76,6 +70,9 @@
   </si>
   <si>
     <t>CNAG_06086</t>
+  </si>
+  <si>
+    <t>TDY451</t>
   </si>
 </sst>
 </file>
@@ -453,18 +450,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1023" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1022" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,181 +489,178 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
+      <c r="H2">
+        <v>90</v>
       </c>
       <c r="I2">
-        <v>90</v>
-      </c>
-      <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
+      <c r="H3">
+        <v>90</v>
       </c>
       <c r="I3">
-        <v>90</v>
-      </c>
-      <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
+      <c r="H4">
+        <v>90</v>
       </c>
       <c r="I4">
-        <v>90</v>
-      </c>
-      <c r="J4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
       <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
+      <c r="H5">
+        <v>90</v>
       </c>
       <c r="I5">
-        <v>90</v>
-      </c>
-      <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
       <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
+      <c r="H6">
+        <v>90</v>
       </c>
       <c r="I6">
-        <v>90</v>
-      </c>
-      <c r="J6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
       <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
+      <c r="H7">
+        <v>90</v>
       </c>
       <c r="I7">
-        <v>90</v>
-      </c>
-      <c r="J7">
         <v>3</v>
       </c>
     </row>

--- a/bioSample/bioSample_1476.xlsx
+++ b/bioSample/bioSample_1476.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">replicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marker_1</t>
   </si>
   <si>
     <t xml:space="preserve">12.11.14</t>
@@ -82,6 +85,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -163,10 +167,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -174,8 +178,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
@@ -209,28 +213,31 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>90</v>
@@ -241,25 +248,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>90</v>
@@ -270,25 +277,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>90</v>
@@ -299,25 +306,22 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>90</v>
@@ -328,25 +332,22 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>90</v>
@@ -357,25 +358,22 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>90</v>

--- a/bioSample/bioSample_1476.xlsx
+++ b/bioSample/bioSample_1476.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">CNAG_06086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G418</t>
   </si>
 </sst>
 </file>
@@ -170,7 +173,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -178,7 +181,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
@@ -329,6 +332,9 @@
       <c r="I5" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J5" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -355,6 +361,9 @@
       <c r="I6" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J6" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -380,6 +389,9 @@
       </c>
       <c r="I7" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/bioSample/bioSample_1476.xlsx
+++ b/bioSample/bioSample_1476.xlsx
@@ -1,37 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35734D20-5044-AA4A-A323-9E09498EB74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
+  <si>
+    <t>harvestDate</t>
+  </si>
+  <si>
+    <t>harvester</t>
+  </si>
+  <si>
+    <t>bioSampleNumber</t>
+  </si>
+  <si>
+    <t>experimentDesign</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>genotype1</t>
+  </si>
+  <si>
+    <t>perturbation1</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>atmosphere</t>
+  </si>
+  <si>
+    <t>timePoint</t>
+  </si>
+  <si>
+    <t>replicate</t>
+  </si>
+  <si>
+    <t>marker_1</t>
+  </si>
+  <si>
+    <t>12.11.14</t>
+  </si>
+  <si>
+    <t>S.GISH</t>
+  </si>
+  <si>
+    <t>90minuteInduction</t>
+  </si>
+  <si>
+    <t>TDY451</t>
+  </si>
+  <si>
+    <t>CNAG_00000</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CNAG_06086</t>
+  </si>
+  <si>
+    <t>deletion</t>
+  </si>
+  <si>
+    <t>G418</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>DMEM</t>
+  </si>
+  <si>
+    <t>TDY1537</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +133,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,382 +457,288 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>harvestDate</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>harvester</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>bioSampleNumber</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>experimentDesign</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>strain</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>genotype1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>perturbation1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>temperature</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>atmosphere</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>timePoint</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>replicate</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>marker_1</t>
-        </is>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>12.11.14</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>S.GISH</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>90minuteInduction</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>TDY451</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CNAG_00000</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2">
         <v>90</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>12.11.14</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>S.GISH</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>90minuteInduction</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>TDY451</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CNAG_00000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
         <v>90</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="L3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>12.11.14</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>S.GISH</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>90minuteInduction</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TDY451</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CNAG_00000</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
         <v>90</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="L4" t="inlineStr"/>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>12.11.14</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>S.GISH</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90minuteInduction</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CNAG_06086</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>deletion</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
         <v>90</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>G418</t>
-        </is>
+      <c r="M5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>12.11.14</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>S.GISH</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90minuteInduction</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CNAG_06086</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>deletion</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
         <v>90</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>G418</t>
-        </is>
+      <c r="M6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>12.11.14</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>S.GISH</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90minuteInduction</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CNAG_06086</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>deletion</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
         <v>90</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7">
         <v>3</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>G418</t>
-        </is>
+      <c r="M7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>